--- a/evaluation_framework/evaluation/result_analyzer/excel/bug/1st_original_data/bug_full_data_1.5h.xlsx
+++ b/evaluation_framework/evaluation/result_analyzer/excel/bug/1st_original_data/bug_full_data_1.5h.xlsx
@@ -1597,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="DC2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="DD2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="DE2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="DF2" t="n">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="DE3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="DF3" t="n">
         <v>1</v>
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DD4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DE4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="DF4" t="n">
         <v>1</v>
@@ -3130,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="DC5" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="DD5" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="DE5" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="DF5" t="n">
         <v>1</v>
@@ -3641,13 +3641,13 @@
         <v>1</v>
       </c>
       <c r="DC6" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="DD6" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="DE6" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="DF6" t="n">
         <v>1</v>
@@ -4152,13 +4152,13 @@
         <v>4</v>
       </c>
       <c r="DC7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="DD7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="DE7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="DF7" t="n">
         <v>1</v>
@@ -4663,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="DC8" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="DD8" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="DE8" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="DF8" t="n">
         <v>1</v>
@@ -5174,13 +5174,13 @@
         <v>2</v>
       </c>
       <c r="DC9" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="DD9" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="DE9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="DF9" t="n">
         <v>1</v>
@@ -5685,13 +5685,13 @@
         <v>2</v>
       </c>
       <c r="DC10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="DD10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="DE10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="DF10" t="n">
         <v>1</v>
@@ -22037,13 +22037,13 @@
         <v>3</v>
       </c>
       <c r="DC42" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="DD42" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="DE42" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="DF42" t="n">
         <v>0</v>
@@ -22548,13 +22548,13 @@
         <v>3</v>
       </c>
       <c r="DC43" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="DD43" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="DE43" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="DF43" t="n">
         <v>0</v>
@@ -23059,13 +23059,13 @@
         <v>3</v>
       </c>
       <c r="DC44" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="DD44" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="DE44" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="DF44" t="n">
         <v>0</v>
@@ -23570,13 +23570,13 @@
         <v>2</v>
       </c>
       <c r="DC45" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="DD45" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="DE45" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="DF45" t="n">
         <v>0</v>
@@ -24081,13 +24081,13 @@
         <v>1</v>
       </c>
       <c r="DC46" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="DD46" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="DE46" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="DF46" t="n">
         <v>0</v>
@@ -24592,13 +24592,13 @@
         <v>2</v>
       </c>
       <c r="DC47" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="DD47" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="DE47" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="DF47" t="n">
         <v>0</v>
@@ -25103,13 +25103,13 @@
         <v>2</v>
       </c>
       <c r="DC48" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="DD48" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="DE48" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="DF48" t="n">
         <v>0</v>
@@ -25614,13 +25614,13 @@
         <v>2</v>
       </c>
       <c r="DC49" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="DD49" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="DE49" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="DF49" t="n">
         <v>0</v>
@@ -26125,13 +26125,13 @@
         <v>1</v>
       </c>
       <c r="DC50" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="DD50" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="DE50" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="DF50" t="n">
         <v>0</v>
@@ -26636,13 +26636,13 @@
         <v>3</v>
       </c>
       <c r="DC51" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="DD51" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="DE51" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="DF51" t="n">
         <v>0</v>
@@ -34301,13 +34301,13 @@
         <v>2</v>
       </c>
       <c r="DC66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DD66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DE66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DF66" t="n">
         <v>1</v>
@@ -34812,13 +34812,13 @@
         <v>5</v>
       </c>
       <c r="DC67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="DD67" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="DE67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DF67" t="n">
         <v>1</v>
@@ -36856,13 +36856,13 @@
         <v>3</v>
       </c>
       <c r="DC71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DD71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DE71" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DF71" t="n">
         <v>1</v>
